--- a/data/input/absenteeism_data_10.xlsx
+++ b/data/input/absenteeism_data_10.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>75569</v>
+        <v>8422</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vicente Campos</t>
+          <t>Caroline Castro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45090</v>
       </c>
       <c r="G2" t="n">
-        <v>5236.81</v>
+        <v>11650.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>34782</v>
+        <v>10445</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sra. Manuela Alves</t>
+          <t>Diego Rezende</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45079</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>8813.889999999999</v>
+        <v>2804.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>29543</v>
+        <v>53933</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Carolina Silva</t>
+          <t>Srta. Laís Nogueira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>8595.02</v>
+        <v>4989.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>65723</v>
+        <v>13402</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Henrique Correia</t>
+          <t>João Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,138 +581,138 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>11750.43</v>
+        <v>12360.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13303</v>
+        <v>79511</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isis Fernandes</t>
+          <t>Antônio Fernandes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>9790.530000000001</v>
+        <v>5412.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>44074</v>
+        <v>85504</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>André Costela</t>
+          <t>Samuel Almeida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45102</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>7653.43</v>
+        <v>6319.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>91779</v>
+        <v>2214</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Fernando Farias</t>
+          <t>Kamilly Mendes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>10326.67</v>
+        <v>9609.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67844</v>
+        <v>23130</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Camila da Cruz</t>
+          <t>Luiz Miguel da Cunha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45093</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>4937.24</v>
+        <v>7114.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>58123</v>
+        <v>60738</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Melissa Silveira</t>
+          <t>Vitor Aragão</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>6637.48</v>
+        <v>7532.55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35809</v>
+        <v>81395</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lavínia Vieira</t>
+          <t>Marcelo Araújo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45078</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>11046.88</v>
+        <v>3726.96</v>
       </c>
     </row>
   </sheetData>
